--- a/data/scores.xlsx
+++ b/data/scores.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
   <si>
     <t>1349</t>
   </si>
   <si>
     <t>A SWARM OF THE SUN</t>
-  </si>
-  <si>
-    <t>ABATH</t>
   </si>
   <si>
     <t>ABBATH</t>
@@ -1247,7 +1244,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K293"/>
+  <dimension ref="A1:K292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1398,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1416,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1433,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1468,13 +1465,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1483,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1503,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1541,19 +1538,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1582,16 +1579,16 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1605,34 +1602,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1640,34 +1637,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E12">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
         <v>6</v>
       </c>
-      <c r="J12">
-        <v>4</v>
-      </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1675,34 +1672,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1719,22 +1716,22 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1754,22 +1751,22 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1792,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1801,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1836,13 +1833,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1850,7 +1847,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1859,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1877,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1885,7 +1882,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1894,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1903,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1935,10 +1932,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1955,10 +1952,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1979,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1990,22 +1987,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2014,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2069,13 +2066,13 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2104,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2113,7 +2110,7 @@
         <v>5</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2139,16 +2136,16 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2177,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2189,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2221,10 +2218,10 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2247,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2256,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2282,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2291,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2305,7 +2302,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2314,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2332,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2340,7 +2337,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2349,25 +2346,25 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2390,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2402,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2410,7 +2407,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2425,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2437,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2451,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2460,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2480,13 +2477,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2501,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2518,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2530,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2562,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G38">
         <v>5</v>
@@ -2577,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2585,22 +2582,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2612,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2620,13 +2617,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2641,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2670,13 +2667,13 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2717,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2731,13 +2728,13 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -2752,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2769,16 +2766,16 @@
         <v>8</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F44">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G44">
         <v>5</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2801,25 +2798,25 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -2830,31 +2827,31 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -2865,31 +2862,31 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>8</v>
       </c>
       <c r="E47">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -2906,10 +2903,10 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2935,7 +2932,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2944,16 +2941,16 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2970,7 +2967,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2985,10 +2982,10 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2997,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3011,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3026,13 +3023,13 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3046,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3061,13 +3058,13 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>2</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3075,34 +3072,34 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
         <v>2</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3110,34 +3107,34 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3148,13 +3145,13 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3163,16 +3160,16 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3183,13 +3180,13 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3198,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3221,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3239,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -3277,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3291,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3341,13 +3338,13 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3358,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3376,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -3390,34 +3387,34 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C62">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3425,7 +3422,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3434,25 +3431,25 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G63">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3472,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <v>4</v>
@@ -3487,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3522,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3548,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -3577,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3589,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -3612,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -3624,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -3641,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3659,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -3676,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3688,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -3708,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3723,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -3732,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3743,10 +3740,10 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3767,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3775,34 +3772,34 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D73">
         <v>8</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3810,34 +3807,34 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3866,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3898,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I76">
         <v>3</v>
@@ -3907,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3933,16 +3930,16 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3953,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3968,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -3988,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -4003,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -4032,13 +4029,13 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -4061,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -4070,7 +4067,7 @@
         <v>6</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -4096,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F82">
         <v>6</v>
@@ -4108,13 +4105,13 @@
         <v>5</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -4134,22 +4131,22 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>3</v>
       </c>
       <c r="J83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -4175,13 +4172,13 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -4204,13 +4201,13 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -4230,7 +4227,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -4239,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -4265,13 +4262,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -4303,10 +4300,10 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D88">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -4315,13 +4312,13 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -4338,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -4356,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -4385,10 +4382,10 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -4405,16 +4402,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -4423,10 +4420,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -4440,16 +4437,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -4458,10 +4455,10 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I92">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -4493,13 +4490,13 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -4513,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -4534,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -4548,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -4563,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -4580,7 +4577,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -4592,22 +4589,22 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4627,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -4639,10 +4636,10 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4650,7 +4647,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -4659,10 +4656,10 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -4694,10 +4691,10 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -4709,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -4738,16 +4735,16 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4770,10 +4767,10 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -4782,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4840,13 +4837,13 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -4872,16 +4869,16 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -4898,10 +4895,10 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4910,16 +4907,16 @@
         <v>6</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -4930,19 +4927,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C106">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D106">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G106">
         <v>5</v>
@@ -4951,13 +4948,13 @@
         <v>4</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J106">
         <v>2</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4965,34 +4962,34 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>3</v>
       </c>
       <c r="J107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5021,13 +5018,13 @@
         <v>0</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5056,13 +5053,13 @@
         <v>0</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5070,7 +5067,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -5091,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -5105,7 +5102,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -5123,13 +5120,13 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -5158,13 +5155,13 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -5184,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -5199,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -5213,13 +5210,13 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -5251,10 +5248,10 @@
         <v>9</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -5272,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -5280,16 +5277,16 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C116">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -5307,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -5315,7 +5312,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -5339,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -5371,10 +5368,10 @@
         <v>0</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -5385,34 +5382,34 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F119">
         <v>0</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -5420,34 +5417,34 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D120">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F120">
         <v>0</v>
       </c>
       <c r="G120">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -5458,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="C121">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -5473,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -5490,25 +5487,25 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F122">
         <v>0</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -5525,22 +5522,22 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F123">
         <v>0</v>
       </c>
       <c r="G123">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -5560,10 +5557,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C124">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -5578,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -5595,7 +5592,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -5610,10 +5607,10 @@
         <v>0</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -5642,10 +5639,10 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G126">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -5665,19 +5662,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C127">
         <v>0</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="F127">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -5689,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -5712,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -5724,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K128">
         <v>0</v>
@@ -5735,19 +5732,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <v>0</v>
       </c>
       <c r="D129">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E129">
         <v>0</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -5756,13 +5753,13 @@
         <v>0</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J129">
         <v>0</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -5791,13 +5788,13 @@
         <v>0</v>
       </c>
       <c r="I130">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -5817,19 +5814,19 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K131">
         <v>0</v>
@@ -5843,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -5858,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -5875,34 +5872,34 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C133">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5910,34 +5907,34 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C134">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E134">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G134">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J134">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5945,7 +5942,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -5963,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -5998,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -6007,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -6021,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -6033,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -6042,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="K137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -6053,31 +6050,31 @@
         <v>0</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D138">
         <v>8</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F138">
         <v>0</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H138">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J138">
         <v>0</v>
       </c>
       <c r="K138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -6088,31 +6085,31 @@
         <v>0</v>
       </c>
       <c r="C139">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D139">
         <v>8</v>
       </c>
       <c r="E139">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F139">
         <v>0</v>
       </c>
       <c r="G139">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J139">
         <v>0</v>
       </c>
       <c r="K139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -6126,16 +6123,16 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E140">
         <v>0</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -6167,10 +6164,10 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G141">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -6179,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K141">
         <v>0</v>
@@ -6205,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -6214,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K142">
         <v>0</v>
@@ -6240,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="G143">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -6252,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -6269,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -6284,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K144">
         <v>1</v>
@@ -6304,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="E145">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -6316,13 +6313,13 @@
         <v>0</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -6351,10 +6348,10 @@
         <v>0</v>
       </c>
       <c r="I146">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K146">
         <v>0</v>
@@ -6368,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -6377,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -6389,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="J147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K147">
         <v>0</v>
@@ -6403,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="C148">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -6435,10 +6432,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -6447,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -6459,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K149">
         <v>0</v>
@@ -6470,10 +6467,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C150">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -6517,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -6529,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="J151">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K151">
         <v>0</v>
@@ -6575,34 +6572,34 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F153">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J153">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -6610,34 +6607,34 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C154">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D154">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E154">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G154">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I154">
         <v>3</v>
       </c>
       <c r="J154">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -6654,25 +6651,25 @@
         <v>0</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
       <c r="H155">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J155">
         <v>0</v>
       </c>
       <c r="K155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -6680,7 +6677,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -6689,10 +6686,10 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -6701,13 +6698,13 @@
         <v>0</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J156">
         <v>0</v>
       </c>
       <c r="K156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -6736,10 +6733,10 @@
         <v>0</v>
       </c>
       <c r="I157">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K157">
         <v>0</v>
@@ -6750,7 +6747,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -6791,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -6809,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="J159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K159">
         <v>0</v>
@@ -6826,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -6844,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="J160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K160">
         <v>0</v>
@@ -6867,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -6879,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="J161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K161">
         <v>0</v>
@@ -6937,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -6952,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="K163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6966,7 +6963,7 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -6987,7 +6984,7 @@
         <v>0</v>
       </c>
       <c r="K164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6995,13 +6992,13 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C165">
         <v>0</v>
       </c>
       <c r="D165">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -7030,7 +7027,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -7057,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="K166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -7074,13 +7071,13 @@
         <v>0</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -7109,16 +7106,16 @@
         <v>0</v>
       </c>
       <c r="E168">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F168">
         <v>0</v>
       </c>
       <c r="G168">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -7127,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="K168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -7135,7 +7132,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -7150,10 +7147,10 @@
         <v>0</v>
       </c>
       <c r="G169">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H169">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -7170,16 +7167,16 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D170">
         <v>0</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -7188,16 +7185,16 @@
         <v>10</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -7205,34 +7202,34 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C171">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G171">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I171">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -7246,13 +7243,13 @@
         <v>0</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E172">
         <v>0</v>
       </c>
       <c r="F172">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -7275,13 +7272,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C173">
         <v>0</v>
       </c>
       <c r="D173">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -7310,7 +7307,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -7331,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -7357,16 +7354,16 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I175">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -7392,19 +7389,19 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>0</v>
       </c>
       <c r="J176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K176">
         <v>0</v>
@@ -7433,13 +7430,13 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K177">
         <v>0</v>
@@ -7468,13 +7465,13 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I178">
         <v>0</v>
       </c>
       <c r="J178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K178">
         <v>0</v>
@@ -7509,10 +7506,10 @@
         <v>0</v>
       </c>
       <c r="J179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -7529,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -7538,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -7547,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="K180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -7564,25 +7561,25 @@
         <v>0</v>
       </c>
       <c r="E181">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F181">
         <v>0</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>3</v>
+      </c>
+      <c r="J181">
         <v>4</v>
       </c>
-      <c r="I181">
-        <v>0</v>
-      </c>
-      <c r="J181">
-        <v>0</v>
-      </c>
       <c r="K181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -7593,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -7605,19 +7602,19 @@
         <v>0</v>
       </c>
       <c r="G182">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H182">
         <v>0</v>
       </c>
       <c r="I182">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -7625,10 +7622,10 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C183">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -7660,7 +7657,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -7684,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="J184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K184">
         <v>0</v>
@@ -7710,7 +7707,7 @@
         <v>0</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -7719,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="J185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K185">
         <v>0</v>
@@ -7745,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="G186">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -7754,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="J186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K186">
         <v>0</v>
@@ -7786,10 +7783,10 @@
         <v>0</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J187">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K187">
         <v>0</v>
@@ -7803,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -7821,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="I188">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J188">
         <v>0</v>
@@ -7838,10 +7835,10 @@
         <v>0</v>
       </c>
       <c r="C189">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -7873,16 +7870,16 @@
         <v>0</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D190">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E190">
         <v>0</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -7891,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J190">
         <v>0</v>
@@ -7908,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="C191">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -7917,16 +7914,16 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G191">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H191">
         <v>0</v>
       </c>
       <c r="I191">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J191">
         <v>0</v>
@@ -7940,22 +7937,22 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D192">
         <v>0</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F192">
         <v>0</v>
       </c>
       <c r="G192">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -7975,22 +7972,22 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C193">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F193">
         <v>0</v>
       </c>
       <c r="G193">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -8010,7 +8007,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -8022,10 +8019,10 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G194">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -8045,7 +8042,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -8057,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -8066,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J195">
         <v>0</v>
@@ -8086,25 +8083,25 @@
         <v>0</v>
       </c>
       <c r="D196">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E196">
         <v>0</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G196">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H196">
         <v>0</v>
       </c>
       <c r="I196">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K196">
         <v>0</v>
@@ -8127,10 +8124,10 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G197">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -8139,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -8156,7 +8153,7 @@
         <v>0</v>
       </c>
       <c r="D198">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -8174,10 +8171,10 @@
         <v>0</v>
       </c>
       <c r="J198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -8185,34 +8182,34 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G199">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I199">
         <v>0</v>
       </c>
       <c r="J199">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K199">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -8220,34 +8217,34 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C200">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D200">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E200">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G200">
         <v>5</v>
       </c>
       <c r="H200">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I200">
         <v>0</v>
       </c>
       <c r="J200">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K200">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -8255,7 +8252,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -8264,13 +8261,13 @@
         <v>0</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F201">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G201">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -8290,7 +8287,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -8299,10 +8296,10 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -8337,13 +8334,13 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G203">
         <v>0</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -8378,10 +8375,10 @@
         <v>0</v>
       </c>
       <c r="H204">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J204">
         <v>0</v>
@@ -8413,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I205">
         <v>3</v>
@@ -8430,31 +8427,31 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H206">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I206">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K206">
         <v>0</v>
@@ -8465,22 +8462,22 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C207">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D207">
         <v>8</v>
       </c>
       <c r="E207">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G207">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -8489,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="J207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K207">
         <v>0</v>
@@ -8506,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="D208">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -8515,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="G208">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -8550,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="G209">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -8562,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="K209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -8588,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I210">
         <v>0</v>
@@ -8597,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="K210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -8623,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="H211">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I211">
         <v>0</v>
@@ -8632,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="K211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -8640,7 +8637,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -8652,22 +8649,22 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G212">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J212">
         <v>0</v>
       </c>
       <c r="K212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -8675,7 +8672,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -8690,13 +8687,13 @@
         <v>6</v>
       </c>
       <c r="G213">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H213">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J213">
         <v>0</v>
@@ -8722,7 +8719,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -8731,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J214">
         <v>0</v>
@@ -8748,10 +8745,10 @@
         <v>0</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -8763,10 +8760,10 @@
         <v>0</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I215">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J215">
         <v>0</v>
@@ -8783,10 +8780,10 @@
         <v>0</v>
       </c>
       <c r="C216">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D216">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -8798,10 +8795,10 @@
         <v>0</v>
       </c>
       <c r="H216">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J216">
         <v>0</v>
@@ -8815,34 +8812,34 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C217">
         <v>0</v>
       </c>
       <c r="D217">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G217">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H217">
         <v>0</v>
       </c>
       <c r="I217">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -8856,28 +8853,28 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E218">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F218">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G218">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H218">
         <v>0</v>
       </c>
       <c r="I218">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
         <v>2</v>
-      </c>
-      <c r="K218">
-        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -8885,16 +8882,16 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E219">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -8906,13 +8903,13 @@
         <v>0</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J219">
         <v>0</v>
       </c>
       <c r="K219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -8923,13 +8920,13 @@
         <v>0</v>
       </c>
       <c r="C220">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D220">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E220">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -8941,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="I220">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J220">
         <v>0</v>
@@ -8961,13 +8958,13 @@
         <v>9</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -8976,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J221">
         <v>0</v>
@@ -8993,16 +8990,16 @@
         <v>0</v>
       </c>
       <c r="C222">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D222">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E222">
         <v>7</v>
       </c>
       <c r="F222">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -9011,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="I222">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J222">
         <v>0</v>
@@ -9028,13 +9025,13 @@
         <v>0</v>
       </c>
       <c r="C223">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D223">
         <v>0</v>
       </c>
       <c r="E223">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -9063,7 +9060,7 @@
         <v>0</v>
       </c>
       <c r="C224">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -9078,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I224">
         <v>0</v>
@@ -9101,13 +9098,13 @@
         <v>0</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -9119,7 +9116,7 @@
         <v>0</v>
       </c>
       <c r="J225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K225">
         <v>0</v>
@@ -9136,13 +9133,13 @@
         <v>0</v>
       </c>
       <c r="D226">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E226">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -9154,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="J226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K226">
         <v>0</v>
@@ -9174,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -9183,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="H227">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I227">
         <v>0</v>
@@ -9209,7 +9206,7 @@
         <v>0</v>
       </c>
       <c r="E228">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -9227,7 +9224,7 @@
         <v>0</v>
       </c>
       <c r="K228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -9253,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I229">
         <v>0</v>
@@ -9262,7 +9259,7 @@
         <v>0</v>
       </c>
       <c r="K229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -9317,13 +9314,13 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G231">
         <v>0</v>
       </c>
       <c r="H231">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I231">
         <v>0</v>
@@ -9340,7 +9337,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -9352,7 +9349,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -9410,23 +9407,23 @@
         <v>232</v>
       </c>
       <c r="B234">
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>16</v>
+      </c>
+      <c r="E234">
+        <v>7</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
         <v>10</v>
       </c>
-      <c r="C234">
-        <v>0</v>
-      </c>
-      <c r="D234">
-        <v>0</v>
-      </c>
-      <c r="E234">
-        <v>0</v>
-      </c>
-      <c r="F234">
-        <v>0</v>
-      </c>
-      <c r="G234">
-        <v>0</v>
-      </c>
       <c r="H234">
         <v>0</v>
       </c>
@@ -9437,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="K234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -9445,22 +9442,22 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C235">
         <v>0</v>
       </c>
       <c r="D235">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E235">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F235">
         <v>0</v>
       </c>
       <c r="G235">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -9472,7 +9469,7 @@
         <v>0</v>
       </c>
       <c r="K235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -9480,7 +9477,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -9501,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J236">
         <v>0</v>
@@ -9515,31 +9512,31 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C237">
         <v>0</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G237">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I237">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J237">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K237">
         <v>0</v>
@@ -9550,31 +9547,31 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C238">
         <v>0</v>
       </c>
       <c r="D238">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E238">
         <v>7</v>
       </c>
       <c r="F238">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G238">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H238">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
       <c r="J238">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K238">
         <v>0</v>
@@ -9591,13 +9588,13 @@
         <v>0</v>
       </c>
       <c r="D239">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E239">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -9609,7 +9606,7 @@
         <v>0</v>
       </c>
       <c r="J239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K239">
         <v>0</v>
@@ -9638,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I240">
         <v>0</v>
       </c>
       <c r="J240">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K240">
         <v>0</v>
@@ -9670,10 +9667,10 @@
         <v>0</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H241">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I241">
         <v>0</v>
@@ -9705,19 +9702,19 @@
         <v>0</v>
       </c>
       <c r="G242">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H242">
         <v>0</v>
       </c>
       <c r="I242">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J242">
         <v>0</v>
       </c>
       <c r="K242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -9752,7 +9749,7 @@
         <v>0</v>
       </c>
       <c r="K243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -9781,13 +9778,13 @@
         <v>0</v>
       </c>
       <c r="I244">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J244">
         <v>0</v>
       </c>
       <c r="K244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -9807,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -9822,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="K245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -9833,10 +9830,10 @@
         <v>0</v>
       </c>
       <c r="C246">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D246">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -9845,19 +9842,19 @@
         <v>6</v>
       </c>
       <c r="G246">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I246">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J246">
         <v>0</v>
       </c>
       <c r="K246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -9868,31 +9865,31 @@
         <v>0</v>
       </c>
       <c r="C247">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D247">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E247">
         <v>0</v>
       </c>
       <c r="F247">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G247">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H247">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I247">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J247">
         <v>0</v>
       </c>
       <c r="K247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -9903,10 +9900,10 @@
         <v>0</v>
       </c>
       <c r="C248">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D248">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -9941,10 +9938,10 @@
         <v>9</v>
       </c>
       <c r="D249">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -9956,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="I249">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J249">
         <v>0</v>
@@ -9976,10 +9973,10 @@
         <v>9</v>
       </c>
       <c r="D250">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E250">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -9991,7 +9988,7 @@
         <v>0</v>
       </c>
       <c r="I250">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J250">
         <v>0</v>
@@ -10008,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="C251">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -10020,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="G251">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H251">
         <v>0</v>
@@ -10055,7 +10052,7 @@
         <v>0</v>
       </c>
       <c r="G252">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -10067,7 +10064,7 @@
         <v>0</v>
       </c>
       <c r="K252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -10122,7 +10119,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -10137,7 +10134,7 @@
         <v>0</v>
       </c>
       <c r="K254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -10151,13 +10148,13 @@
         <v>0</v>
       </c>
       <c r="D255">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E255">
         <v>0</v>
       </c>
       <c r="F255">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -10183,10 +10180,10 @@
         <v>0</v>
       </c>
       <c r="C256">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D256">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -10195,10 +10192,10 @@
         <v>0</v>
       </c>
       <c r="G256">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I256">
         <v>0</v>
@@ -10218,7 +10215,7 @@
         <v>0</v>
       </c>
       <c r="C257">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -10227,16 +10224,16 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G257">
         <v>5</v>
       </c>
       <c r="H257">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I257">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J257">
         <v>0</v>
@@ -10262,19 +10259,19 @@
         <v>0</v>
       </c>
       <c r="F258">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G258">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H258">
         <v>0</v>
       </c>
       <c r="I258">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J258">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K258">
         <v>0</v>
@@ -10288,10 +10285,10 @@
         <v>0</v>
       </c>
       <c r="C259">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D259">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -10309,7 +10306,7 @@
         <v>0</v>
       </c>
       <c r="J259">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K259">
         <v>0</v>
@@ -10323,13 +10320,13 @@
         <v>0</v>
       </c>
       <c r="C260">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D260">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -10364,10 +10361,10 @@
         <v>0</v>
       </c>
       <c r="E261">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F261">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -10399,10 +10396,10 @@
         <v>0</v>
       </c>
       <c r="E262">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F262">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -10425,7 +10422,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -10434,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="E263">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -10460,7 +10457,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -10484,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="J264">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K264">
         <v>0</v>
@@ -10504,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="E265">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -10530,13 +10527,13 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C266">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D266">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E266">
         <v>14</v>
@@ -10548,16 +10545,16 @@
         <v>0</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I266">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J266">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -10565,16 +10562,16 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C267">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D267">
         <v>8</v>
       </c>
       <c r="E267">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -10583,16 +10580,16 @@
         <v>0</v>
       </c>
       <c r="H267">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I267">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J267">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -10600,13 +10597,13 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C268">
         <v>0</v>
       </c>
       <c r="D268">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -10635,7 +10632,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -10650,7 +10647,7 @@
         <v>0</v>
       </c>
       <c r="G269">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H269">
         <v>0</v>
@@ -10685,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="G270">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -10697,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="K270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -10717,22 +10714,22 @@
         <v>0</v>
       </c>
       <c r="F271">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G271">
         <v>0</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I271">
         <v>0</v>
       </c>
       <c r="J271">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -10746,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="D272">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E272">
         <v>0</v>
       </c>
       <c r="F272">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G272">
         <v>0</v>
       </c>
       <c r="H272">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I272">
         <v>0</v>
       </c>
       <c r="J272">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -10781,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="D273">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -10799,10 +10796,10 @@
         <v>0</v>
       </c>
       <c r="J273">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -10822,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="F274">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -10834,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="J274">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K274">
         <v>0</v>
@@ -10880,7 +10877,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -10892,7 +10889,7 @@
         <v>0</v>
       </c>
       <c r="F276">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G276">
         <v>0</v>
@@ -10907,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -10915,7 +10912,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -10939,10 +10936,10 @@
         <v>0</v>
       </c>
       <c r="J277">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -10953,10 +10950,10 @@
         <v>0</v>
       </c>
       <c r="C278">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D278">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -10971,7 +10968,7 @@
         <v>0</v>
       </c>
       <c r="I278">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J278">
         <v>2</v>
@@ -10985,10 +10982,10 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C279">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D279">
         <v>8</v>
@@ -11009,7 +11006,7 @@
         <v>3</v>
       </c>
       <c r="J279">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K279">
         <v>0</v>
@@ -11020,13 +11017,13 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C280">
         <v>0</v>
       </c>
       <c r="D280">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -11070,13 +11067,13 @@
         <v>0</v>
       </c>
       <c r="G281">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H281">
         <v>0</v>
       </c>
       <c r="I281">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J281">
         <v>0</v>
@@ -11093,25 +11090,25 @@
         <v>0</v>
       </c>
       <c r="C282">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D282">
         <v>0</v>
       </c>
       <c r="E282">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F282">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G282">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H282">
         <v>0</v>
       </c>
       <c r="I282">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J282">
         <v>0</v>
@@ -11128,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="C283">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -11137,7 +11134,7 @@
         <v>7</v>
       </c>
       <c r="F283">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -11152,7 +11149,7 @@
         <v>0</v>
       </c>
       <c r="K283">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -11169,25 +11166,25 @@
         <v>0</v>
       </c>
       <c r="E284">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F284">
         <v>0</v>
       </c>
       <c r="G284">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H284">
         <v>0</v>
       </c>
       <c r="I284">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J284">
         <v>0</v>
       </c>
       <c r="K284">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -11195,34 +11192,34 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C285">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D285">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E285">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F285">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G285">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H285">
         <v>0</v>
       </c>
       <c r="I285">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J285">
         <v>0</v>
       </c>
       <c r="K285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -11230,19 +11227,19 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C286">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D286">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E286">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F286">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G286">
         <v>0</v>
@@ -11251,7 +11248,7 @@
         <v>0</v>
       </c>
       <c r="I286">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J286">
         <v>0</v>
@@ -11265,7 +11262,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -11286,13 +11283,13 @@
         <v>0</v>
       </c>
       <c r="I287">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J287">
         <v>0</v>
       </c>
       <c r="K287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -11312,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="F288">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G288">
         <v>0</v>
@@ -11321,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="I288">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J288">
         <v>0</v>
@@ -11338,7 +11335,7 @@
         <v>0</v>
       </c>
       <c r="C289">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -11347,7 +11344,7 @@
         <v>0</v>
       </c>
       <c r="F289">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G289">
         <v>0</v>
@@ -11373,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="C290">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -11394,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="J290">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K290">
         <v>0</v>
@@ -11411,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="D291">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -11429,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="J291">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K291">
         <v>0</v>
@@ -11446,7 +11443,7 @@
         <v>0</v>
       </c>
       <c r="D292">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -11458,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I292">
         <v>0</v>
@@ -11467,41 +11464,6 @@
         <v>0</v>
       </c>
       <c r="K292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11">
-      <c r="A293" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B293">
-        <v>0</v>
-      </c>
-      <c r="C293">
-        <v>0</v>
-      </c>
-      <c r="D293">
-        <v>0</v>
-      </c>
-      <c r="E293">
-        <v>0</v>
-      </c>
-      <c r="F293">
-        <v>0</v>
-      </c>
-      <c r="G293">
-        <v>0</v>
-      </c>
-      <c r="H293">
-        <v>4</v>
-      </c>
-      <c r="I293">
-        <v>0</v>
-      </c>
-      <c r="J293">
-        <v>0</v>
-      </c>
-      <c r="K293">
         <v>0</v>
       </c>
     </row>

--- a/data/scores.xlsx
+++ b/data/scores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
   <si>
     <t xml:space="preserve">Total</t>
   </si>
@@ -142,6 +142,9 @@
     <t xml:space="preserve">SABATON</t>
   </si>
   <si>
+    <t xml:space="preserve">BLIND GUARDIAN</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLORYHAMMER</t>
   </si>
   <si>
@@ -175,9 +178,6 @@
     <t xml:space="preserve">SLEEP TOKEN</t>
   </si>
   <si>
-    <t xml:space="preserve">BLIND GUARDIAN TWILIGHT ORCHESTRA</t>
-  </si>
-  <si>
     <t xml:space="preserve">BRYMIR</t>
   </si>
   <si>
@@ -205,6 +205,9 @@
     <t xml:space="preserve">ANDY GILLION</t>
   </si>
   <si>
+    <t xml:space="preserve">CLIPPING.</t>
+  </si>
+  <si>
     <t xml:space="preserve">NIGHTLAND</t>
   </si>
   <si>
@@ -289,6 +292,9 @@
     <t xml:space="preserve">LITURGY</t>
   </si>
   <si>
+    <t xml:space="preserve">MISÞYRMING</t>
+  </si>
+  <si>
     <t xml:space="preserve">UNPROCESSED</t>
   </si>
   <si>
@@ -355,9 +361,6 @@
     <t xml:space="preserve">BEHEMOTH</t>
   </si>
   <si>
-    <t xml:space="preserve">CLIPPING</t>
-  </si>
-  <si>
     <t xml:space="preserve">CRYSTAL LAKE</t>
   </si>
   <si>
@@ -379,9 +382,6 @@
     <t xml:space="preserve">INFERI</t>
   </si>
   <si>
-    <t xml:space="preserve">MYSÞYRMING</t>
-  </si>
-  <si>
     <t xml:space="preserve">OCTOBER TIDE</t>
   </si>
   <si>
@@ -400,9 +400,6 @@
     <t xml:space="preserve">BOY HARSHER</t>
   </si>
   <si>
-    <t xml:space="preserve">CLIPPING.</t>
-  </si>
-  <si>
     <t xml:space="preserve">DAWN RAY’D</t>
   </si>
   <si>
@@ -496,9 +493,6 @@
     <t xml:space="preserve">BATTLE BEAST</t>
   </si>
   <si>
-    <t xml:space="preserve">BLIND GUARDIAN</t>
-  </si>
-  <si>
     <t xml:space="preserve">DRAB MAJESTY</t>
   </si>
   <si>
@@ -710,9 +704,6 @@
   </si>
   <si>
     <t xml:space="preserve">KLONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MISTHYRMING</t>
   </si>
   <si>
     <t xml:space="preserve">NICK JOHNSTON</t>
@@ -996,15 +987,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L283"/>
+  <dimension ref="A1:L280"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O11" activeCellId="0" sqref="O11"/>
+      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="2" style="0" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="2.68"/>
   </cols>
@@ -2573,19 +2564,19 @@
         <v>0</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>0</v>
@@ -2618,7 +2609,7 @@
         <v>8</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>0</v>
@@ -2630,17 +2621,17 @@
         <v>0</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="0" t="n">
         <f aca="false">SUM(B42:K42)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2648,16 +2639,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>0</v>
@@ -2672,14 +2663,14 @@
         <v>3</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="0" t="n">
         <f aca="false">SUM(B43:K43)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2693,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>0</v>
@@ -2714,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="0" t="n">
         <f aca="false">SUM(B44:K44)</f>
@@ -2726,16 +2717,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>0</v>
@@ -2744,16 +2735,16 @@
         <v>0</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="0" t="n">
         <f aca="false">SUM(B45:K45)</f>
@@ -2765,7 +2756,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>9</v>
@@ -2774,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>0</v>
@@ -2783,16 +2774,16 @@
         <v>0</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="0" t="n">
         <f aca="false">SUM(B46:K46)</f>
@@ -2804,13 +2795,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>0</v>
@@ -2822,13 +2813,13 @@
         <v>0</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>0</v>
@@ -2846,22 +2837,22 @@
         <v>0</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>0</v>
@@ -2882,7 +2873,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
@@ -2891,10 +2882,10 @@
         <v>8</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G49" s="0" t="n">
         <v>0</v>
@@ -2903,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>0</v>
@@ -2927,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>0</v>
@@ -2936,13 +2927,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>0</v>
@@ -2952,7 +2943,7 @@
       </c>
       <c r="L50" s="0" t="n">
         <f aca="false">SUM(B50:K50)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2960,7 +2951,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>0</v>
@@ -2975,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>0</v>
@@ -2999,22 +2990,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>0</v>
@@ -3030,7 +3021,7 @@
       </c>
       <c r="L52" s="0" t="n">
         <f aca="false">SUM(B52:K52)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3392,10 +3383,10 @@
         <v>0</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>0</v>
@@ -3416,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="0" t="n">
         <f aca="false">SUM(B62:K62)</f>
@@ -3428,16 +3419,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>0</v>
@@ -3467,16 +3458,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>0</v>
@@ -3509,10 +3500,10 @@
         <v>0</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>0</v>
@@ -3533,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="0" t="n">
         <f aca="false">SUM(B65:K65)</f>
@@ -3548,13 +3539,13 @@
         <v>0</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>0</v>
@@ -3572,11 +3563,11 @@
         <v>0</v>
       </c>
       <c r="K66" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="0" t="n">
         <f aca="false">SUM(B66:K66)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3587,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>0</v>
@@ -3599,10 +3590,10 @@
         <v>0</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I67" s="0" t="n">
         <v>0</v>
@@ -3632,25 +3623,25 @@
         <v>0</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I68" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K68" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L68" s="0" t="n">
         <f aca="false">SUM(B68:K68)</f>
@@ -3683,13 +3674,13 @@
         <v>0</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K69" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L69" s="0" t="n">
         <f aca="false">SUM(B69:K69)</f>
@@ -3710,10 +3701,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G70" s="0" t="n">
         <v>0</v>
@@ -3722,13 +3713,13 @@
         <v>0</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K70" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="0" t="n">
         <f aca="false">SUM(B70:K70)</f>
@@ -3740,7 +3731,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>0</v>
@@ -3749,13 +3740,13 @@
         <v>0</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>0</v>
@@ -3764,14 +3755,14 @@
         <v>0</v>
       </c>
       <c r="J71" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K71" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L71" s="0" t="n">
         <f aca="false">SUM(B71:K71)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3779,13 +3770,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>0</v>
@@ -3794,19 +3785,19 @@
         <v>0</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K72" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L72" s="0" t="n">
         <f aca="false">SUM(B72:K72)</f>
@@ -3824,28 +3815,28 @@
         <v>0</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J73" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K73" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L73" s="0" t="n">
         <f aca="false">SUM(B73:K73)</f>
@@ -3869,22 +3860,22 @@
         <v>0</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J74" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K74" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" s="0" t="n">
         <f aca="false">SUM(B74:K74)</f>
@@ -3899,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>0</v>
@@ -3908,22 +3899,22 @@
         <v>0</v>
       </c>
       <c r="F75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I75" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G75" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H75" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="J75" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K75" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="0" t="n">
         <f aca="false">SUM(B75:K75)</f>
@@ -3938,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>0</v>
@@ -3950,10 +3941,10 @@
         <v>6</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I76" s="0" t="n">
         <v>0</v>
@@ -3974,7 +3965,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>0</v>
@@ -3986,10 +3977,10 @@
         <v>0</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>4</v>
@@ -4005,7 +3996,7 @@
       </c>
       <c r="L77" s="0" t="n">
         <f aca="false">SUM(B77:K77)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4013,7 +4004,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>0</v>
@@ -4025,19 +4016,19 @@
         <v>0</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G78" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I78" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J78" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K78" s="0" t="n">
         <v>0</v>
@@ -4061,10 +4052,10 @@
         <v>0</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G79" s="0" t="n">
         <v>0</v>
@@ -4076,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="J79" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K79" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" s="0" t="n">
         <f aca="false">SUM(B79:K79)</f>
@@ -4100,25 +4091,25 @@
         <v>0</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F80" s="0" t="n">
         <v>6</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J80" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K80" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" s="0" t="n">
         <f aca="false">SUM(B80:K80)</f>
@@ -4139,19 +4130,19 @@
         <v>0</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J81" s="0" t="n">
         <v>0</v>
@@ -4178,10 +4169,10 @@
         <v>0</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G82" s="0" t="n">
         <v>0</v>
@@ -4200,7 +4191,7 @@
       </c>
       <c r="L82" s="0" t="n">
         <f aca="false">SUM(B82:K82)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4208,7 +4199,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>0</v>
@@ -4217,10 +4208,10 @@
         <v>0</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G83" s="0" t="n">
         <v>0</v>
@@ -4229,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J83" s="0" t="n">
         <v>0</v>
@@ -4247,7 +4238,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>0</v>
@@ -4256,25 +4247,25 @@
         <v>0</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F84" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J84" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K84" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" s="0" t="n">
         <f aca="false">SUM(B84:K84)</f>
@@ -4295,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F85" s="0" t="n">
         <v>0</v>
@@ -4307,10 +4298,10 @@
         <v>0</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J85" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K85" s="0" t="n">
         <v>1</v>
@@ -4334,13 +4325,13 @@
         <v>0</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F86" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>0</v>
@@ -4349,10 +4340,10 @@
         <v>3</v>
       </c>
       <c r="J86" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K86" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L86" s="0" t="n">
         <f aca="false">SUM(B86:K86)</f>
@@ -4373,29 +4364,29 @@
         <v>0</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J87" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K87" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L87" s="0" t="n">
         <f aca="false">SUM(B87:K87)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4409,19 +4400,19 @@
         <v>0</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I88" s="0" t="n">
         <v>0</v>
@@ -4430,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="K88" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" s="0" t="n">
         <f aca="false">SUM(B88:K88)</f>
@@ -4442,13 +4433,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>0</v>
@@ -4460,13 +4451,13 @@
         <v>0</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I89" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J89" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K89" s="0" t="n">
         <v>0</v>
@@ -4481,7 +4472,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>0</v>
@@ -4493,13 +4484,13 @@
         <v>0</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G90" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I90" s="0" t="n">
         <v>0</v>
@@ -4523,10 +4514,10 @@
         <v>0</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>0</v>
@@ -4551,7 +4542,7 @@
       </c>
       <c r="L91" s="0" t="n">
         <f aca="false">SUM(B91:K91)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4574,23 +4565,23 @@
         <v>6</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I92" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J92" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K92" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L92" s="0" t="n">
         <f aca="false">SUM(B92:K92)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4604,10 +4595,10 @@
         <v>0</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F93" s="0" t="n">
         <v>0</v>
@@ -4616,10 +4607,10 @@
         <v>0</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J93" s="0" t="n">
         <v>0</v>
@@ -4676,7 +4667,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>0</v>
@@ -4685,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F95" s="0" t="n">
         <v>0</v>
@@ -4694,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I95" s="0" t="n">
         <v>0</v>
@@ -4703,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" s="0" t="n">
         <f aca="false">SUM(B95:K95)</f>
@@ -4715,7 +4706,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>0</v>
@@ -4727,10 +4718,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>0</v>
@@ -4742,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" s="0" t="n">
         <f aca="false">SUM(B96:K96)</f>
@@ -4754,10 +4745,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>0</v>
@@ -4785,7 +4776,7 @@
       </c>
       <c r="L97" s="0" t="n">
         <f aca="false">SUM(B97:K97)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4820,11 +4811,11 @@
         <v>0</v>
       </c>
       <c r="K98" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" s="0" t="n">
         <f aca="false">SUM(B98:K98)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4832,10 +4823,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>0</v>
@@ -4859,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" s="0" t="n">
         <f aca="false">SUM(B99:K99)</f>
@@ -4988,7 +4979,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>0</v>
@@ -4997,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F103" s="0" t="n">
         <v>0</v>
@@ -5012,10 +5003,10 @@
         <v>0</v>
       </c>
       <c r="J103" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K103" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103" s="0" t="n">
         <f aca="false">SUM(B103:K103)</f>
@@ -5066,7 +5057,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>0</v>
@@ -5075,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F105" s="0" t="n">
         <v>0</v>
@@ -5090,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="J105" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K105" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L105" s="0" t="n">
         <f aca="false">SUM(B105:K105)</f>
@@ -5261,10 +5252,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>0</v>
@@ -5292,7 +5283,7 @@
       </c>
       <c r="L110" s="0" t="n">
         <f aca="false">SUM(B110:K110)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5300,10 +5291,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>0</v>
@@ -5331,7 +5322,7 @@
       </c>
       <c r="L111" s="0" t="n">
         <f aca="false">SUM(B111:K111)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5342,10 +5333,10 @@
         <v>0</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>0</v>
@@ -5366,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="K112" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L112" s="0" t="n">
         <f aca="false">SUM(B112:K112)</f>
@@ -5930,13 +5921,13 @@
         <v>0</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G127" s="0" t="n">
         <v>0</v>
@@ -5948,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="J127" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K127" s="0" t="n">
         <v>0</v>
@@ -5969,13 +5960,13 @@
         <v>0</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G128" s="0" t="n">
         <v>0</v>
@@ -5987,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="J128" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K128" s="0" t="n">
         <v>0</v>
@@ -6086,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>0</v>
@@ -6098,13 +6089,13 @@
         <v>0</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I131" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J131" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K131" s="0" t="n">
         <v>0</v>
@@ -6125,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>0</v>
@@ -6137,13 +6128,13 @@
         <v>0</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I132" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J132" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K132" s="0" t="n">
         <v>0</v>
@@ -6437,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>0</v>
@@ -6449,10 +6440,10 @@
         <v>0</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J140" s="0" t="n">
         <v>0</v>
@@ -6462,7 +6453,7 @@
       </c>
       <c r="L140" s="0" t="n">
         <f aca="false">SUM(B140:K140)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6479,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F141" s="0" t="n">
         <v>0</v>
@@ -6488,10 +6479,10 @@
         <v>0</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J141" s="0" t="n">
         <v>0</v>
@@ -6674,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F146" s="0" t="n">
         <v>0</v>
@@ -6683,10 +6674,10 @@
         <v>0</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J146" s="0" t="n">
         <v>0</v>
@@ -6752,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F148" s="0" t="n">
         <v>0</v>
@@ -6761,10 +6752,10 @@
         <v>0</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J148" s="0" t="n">
         <v>0</v>
@@ -6791,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F149" s="0" t="n">
         <v>0</v>
@@ -6800,10 +6791,10 @@
         <v>0</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J149" s="0" t="n">
         <v>0</v>
@@ -6869,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F151" s="0" t="n">
         <v>0</v>
@@ -6878,10 +6869,10 @@
         <v>0</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J151" s="0" t="n">
         <v>0</v>
@@ -6986,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F154" s="0" t="n">
         <v>0</v>
@@ -6995,20 +6986,20 @@
         <v>0</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I154" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J154" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K154" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L154" s="0" t="n">
         <f aca="false">SUM(B154:K154)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7028,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G155" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I155" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J155" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>0</v>
@@ -7106,10 +7097,10 @@
         <v>0</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H157" s="0" t="n">
         <v>0</v>
@@ -7121,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="K157" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L157" s="0" t="n">
         <f aca="false">SUM(B157:K157)</f>
@@ -7145,10 +7136,10 @@
         <v>0</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H158" s="0" t="n">
         <v>0</v>
@@ -7160,7 +7151,7 @@
         <v>0</v>
       </c>
       <c r="K158" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L158" s="0" t="n">
         <f aca="false">SUM(B158:K158)</f>
@@ -7184,10 +7175,10 @@
         <v>0</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H159" s="0" t="n">
         <v>0</v>
@@ -7199,7 +7190,7 @@
         <v>0</v>
       </c>
       <c r="K159" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L159" s="0" t="n">
         <f aca="false">SUM(B159:K159)</f>
@@ -7847,10 +7838,10 @@
         <v>0</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H176" s="0" t="n">
         <v>0</v>
@@ -7866,7 +7857,7 @@
       </c>
       <c r="L176" s="0" t="n">
         <f aca="false">SUM(B176:K176)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7886,10 +7877,10 @@
         <v>0</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H177" s="0" t="n">
         <v>0</v>
@@ -7905,7 +7896,7 @@
       </c>
       <c r="L177" s="0" t="n">
         <f aca="false">SUM(B177:K177)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8045,10 +8036,10 @@
         <v>0</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I181" s="0" t="n">
         <v>0</v>
@@ -8057,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="K181" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L181" s="0" t="n">
         <f aca="false">SUM(B181:K181)</f>
@@ -8123,10 +8114,10 @@
         <v>0</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I183" s="0" t="n">
         <v>0</v>
@@ -8135,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="K183" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L183" s="0" t="n">
         <f aca="false">SUM(B183:K183)</f>
@@ -8162,10 +8153,10 @@
         <v>0</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I184" s="0" t="n">
         <v>0</v>
@@ -8174,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="K184" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L184" s="0" t="n">
         <f aca="false">SUM(B184:K184)</f>
@@ -8240,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I186" s="0" t="n">
         <v>0</v>
@@ -8252,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="K186" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L186" s="0" t="n">
         <f aca="false">SUM(B186:K186)</f>
@@ -8708,10 +8699,10 @@
         <v>0</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I198" s="0" t="n">
         <v>0</v>
@@ -8724,7 +8715,7 @@
       </c>
       <c r="L198" s="0" t="n">
         <f aca="false">SUM(B198:K198)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8747,10 +8738,10 @@
         <v>0</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I199" s="0" t="n">
         <v>0</v>
@@ -8763,7 +8754,7 @@
       </c>
       <c r="L199" s="0" t="n">
         <f aca="false">SUM(B199:K199)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9452,16 +9443,16 @@
         <v>0</v>
       </c>
       <c r="H217" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J217" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K217" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L217" s="0" t="n">
         <f aca="false">SUM(B217:K217)</f>
@@ -9469,7 +9460,7 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1" t="s">
+      <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B218" s="0" t="n">
@@ -9539,15 +9530,15 @@
         <v>0</v>
       </c>
       <c r="K219" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L219" s="0" t="n">
         <f aca="false">SUM(B219:K219)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="2" t="s">
+      <c r="A220" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B220" s="0" t="n">
@@ -9569,10 +9560,10 @@
         <v>0</v>
       </c>
       <c r="H220" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J220" s="0" t="n">
         <v>0</v>
@@ -9582,7 +9573,7 @@
       </c>
       <c r="L220" s="0" t="n">
         <f aca="false">SUM(B220:K220)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10235,17 +10226,17 @@
         <v>0</v>
       </c>
       <c r="I237" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J237" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K237" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L237" s="0" t="n">
         <f aca="false">SUM(B237:K237)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10274,17 +10265,17 @@
         <v>0</v>
       </c>
       <c r="I238" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J238" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K238" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L238" s="0" t="n">
         <f aca="false">SUM(B238:K238)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10313,17 +10304,17 @@
         <v>0</v>
       </c>
       <c r="I239" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J239" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K239" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L239" s="0" t="n">
         <f aca="false">SUM(B239:K239)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11252,14 +11243,14 @@
         <v>0</v>
       </c>
       <c r="J263" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K263" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L263" s="0" t="n">
         <f aca="false">SUM(B263:K263)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11291,14 +11282,14 @@
         <v>0</v>
       </c>
       <c r="J264" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K264" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L264" s="0" t="n">
         <f aca="false">SUM(B264:K264)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11330,14 +11321,14 @@
         <v>0</v>
       </c>
       <c r="J265" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K265" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L265" s="0" t="n">
         <f aca="false">SUM(B265:K265)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11922,123 +11913,6 @@
       </c>
       <c r="L280" s="0" t="n">
         <f aca="false">SUM(B280:K280)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B281" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C281" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D281" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E281" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F281" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G281" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H281" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J281" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K281" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L281" s="0" t="n">
-        <f aca="false">SUM(B281:K281)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B282" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C282" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D282" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E282" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F282" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G282" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H282" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J282" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K282" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L282" s="0" t="n">
-        <f aca="false">SUM(B282:K282)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B283" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C283" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D283" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E283" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F283" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G283" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H283" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J283" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K283" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L283" s="0" t="n">
-        <f aca="false">SUM(B283:K283)</f>
         <v>1</v>
       </c>
     </row>
